--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 бррсч ост сыр.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 бррсч ост сыр.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\10,06,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\06,25\10,06,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA268E6-0E2E-48A5-9A7B-0B87367EB02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461BE5C-6CCB-4CE8-9E1D-A857ACCF240C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>ср нов</t>
-  </si>
-  <si>
-    <t>расчет</t>
   </si>
   <si>
     <t>заказ филиала</t>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>нужно увеличить продажи!!! (до 25,07,25)</t>
+  </si>
+  <si>
+    <t>заказ</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,52 +1000,52 @@
         <v>14</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1081,45 +1081,47 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1259,10 +1261,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>48</v>
@@ -1337,7 +1339,7 @@
         <v>3.6</v>
       </c>
       <c r="AE6" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" ref="AF6:AF10" si="3">G6*Q6</f>
@@ -1364,10 +1366,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>90</v>
@@ -1472,10 +1474,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>104</v>
@@ -1580,10 +1582,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>68</v>
@@ -1658,7 +1660,7 @@
         <v>3.2</v>
       </c>
       <c r="AE9" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="3"/>
@@ -1685,10 +1687,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>79</v>
@@ -1763,7 +1765,7 @@
         <v>0.4</v>
       </c>
       <c r="AE10" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="3"/>
@@ -1790,10 +1792,10 @@
     </row>
     <row r="11" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
         <v>273</v>
@@ -1873,7 +1875,7 @@
         <v>5.8</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ref="AF11:AF25" si="8">G11*Q11</f>
@@ -1900,10 +1902,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1995,10 +1997,10 @@
     </row>
     <row r="13" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="C13" s="23">
         <v>155.28</v>
@@ -2017,7 +2019,7 @@
         <v>#N/A</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="26">
         <v>2.5</v>
@@ -2073,7 +2075,7 @@
         <v>0.5</v>
       </c>
       <c r="AE13" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF13" s="26"/>
       <c r="AG13" s="1"/>
@@ -2097,10 +2099,10 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>52</v>
@@ -2202,10 +2204,10 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>359</v>
@@ -2312,10 +2314,10 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>232</v>
@@ -2424,10 +2426,10 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>53</v>
@@ -2533,10 +2535,10 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <v>226</v>
@@ -2641,10 +2643,10 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
         <v>442</v>
@@ -2753,10 +2755,10 @@
     </row>
     <row r="20" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>72</v>
@@ -2862,10 +2864,10 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="20">
         <v>84.802000000000007</v>
@@ -2944,7 +2946,7 @@
         <v>0.998</v>
       </c>
       <c r="AE21" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" si="8"/>
@@ -2971,10 +2973,10 @@
     </row>
     <row r="22" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="23">
         <v>3.3660000000000001</v>
@@ -2993,7 +2995,7 @@
         <v>#N/A</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="26">
         <v>6</v>
@@ -3049,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF22" s="26"/>
       <c r="AG22" s="1"/>
@@ -3073,10 +3075,10 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="20">
         <v>33.950000000000003</v>
@@ -3182,10 +3184,10 @@
     </row>
     <row r="24" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="23">
         <v>6.8079999999999998</v>
@@ -3204,7 +3206,7 @@
         <v>#N/A</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="26">
         <v>3.5</v>
@@ -3260,7 +3262,7 @@
         <v>4.0671999999999997</v>
       </c>
       <c r="AE24" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF24" s="26"/>
       <c r="AG24" s="1"/>
@@ -3284,10 +3286,10 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -3356,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF25" s="12">
         <f t="shared" si="8"/>
@@ -3383,10 +3385,10 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>41</v>
@@ -3490,10 +3492,10 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1">
         <v>64.399000000000001</v>
@@ -3597,10 +3599,10 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <v>77</v>
@@ -3702,10 +3704,10 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
         <v>221</v>
@@ -3810,10 +3812,10 @@
     </row>
     <row r="30" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
         <v>77.597999999999999</v>
@@ -3892,7 +3894,7 @@
         <v>6.8372000000000002</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF30" s="1">
         <f t="shared" ref="AF30:AF38" si="10">G30*Q30</f>
@@ -3919,10 +3921,10 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="20">
         <v>3.1280000000000001</v>
@@ -4022,10 +4024,10 @@
     </row>
     <row r="32" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="23">
         <v>11.603999999999999</v>
@@ -4044,7 +4046,7 @@
         <v>#N/A</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="26">
         <v>2.5</v>
@@ -4100,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF32" s="26"/>
       <c r="AG32" s="1"/>
@@ -4124,10 +4126,10 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>312</v>
@@ -4234,10 +4236,10 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>189</v>
@@ -4344,10 +4346,10 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <v>132</v>
@@ -4452,10 +4454,10 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <v>104.381</v>
@@ -4532,7 +4534,7 @@
         <v>5.4429999999999996</v>
       </c>
       <c r="AE36" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF36" s="1">
         <f t="shared" si="10"/>
@@ -4559,10 +4561,10 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>75</v>
@@ -4671,10 +4673,10 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <v>252.245</v>
@@ -4756,7 +4758,7 @@
         <v>43.883000000000003</v>
       </c>
       <c r="AE38" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF38" s="1">
         <f t="shared" si="10"/>
@@ -4835,10 +4837,10 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="20">
         <v>113</v>
@@ -4941,10 +4943,10 @@
     </row>
     <row r="41" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="C41" s="23">
         <v>664</v>
@@ -4965,7 +4967,7 @@
         <v>#N/A</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="26">
         <v>106</v>
@@ -5043,10 +5045,10 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1">
         <v>1758</v>
